--- a/old_database/crypto/library/library_3016.xlsx
+++ b/old_database/crypto/library/library_3016.xlsx
@@ -46,7 +46,7 @@
     <t>06.29.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3016</t>
   </si>
   <si>
     <t>07.06.18</t>
